--- a/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatriceSimplifie.xlsx
+++ b/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatriceSimplifie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Merise\ExercicesModeleConceptuel\GestionAeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA304ED5-8497-4612-B45F-BD710634A10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3994F-9796-40FB-943F-433D8699F2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1567CA26-2DF1-42D2-A484-DF090DD32913}"/>
   </bookViews>
@@ -234,29 +234,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Accent1" xfId="2" builtinId="30"/>
@@ -576,7 +574,7 @@
   <dimension ref="B3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,332 +616,332 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="11"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatriceSimplifie.xlsx
+++ b/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatriceSimplifie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Merise\ExercicesModeleConceptuel\GestionAeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3994F-9796-40FB-943F-433D8699F2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC55B74-D617-42FB-B36F-31E4BC547953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1567CA26-2DF1-42D2-A484-DF090DD32913}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Entité</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Owners</t>
   </si>
   <si>
-    <t>Owner_Adress</t>
-  </si>
-  <si>
     <t>Owner_Phone_Number</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
     <t>Pilot_Firstname</t>
   </si>
   <si>
-    <t>Pilots_ Authorized_Plane</t>
-  </si>
-  <si>
-    <t>Number_Of_Fly</t>
-  </si>
-  <si>
     <t>Owner_Name</t>
   </si>
   <si>
@@ -120,6 +111,42 @@
   </si>
   <si>
     <t>Pilot_Phone_Number</t>
+  </si>
+  <si>
+    <t>Owner_City</t>
+  </si>
+  <si>
+    <t>Owner_Zip_Code</t>
+  </si>
+  <si>
+    <t>Owner_Street</t>
+  </si>
+  <si>
+    <t>Owner_Street_Number</t>
+  </si>
+  <si>
+    <t>Mechanic_City</t>
+  </si>
+  <si>
+    <t>Mechanic_Zip_Code</t>
+  </si>
+  <si>
+    <t>Mechanic_Street</t>
+  </si>
+  <si>
+    <t>Mechanic_Street_Number</t>
+  </si>
+  <si>
+    <t>Pilot_City</t>
+  </si>
+  <si>
+    <t>Pilot_Zip_Code</t>
+  </si>
+  <si>
+    <t>Pilot_Street</t>
+  </si>
+  <si>
+    <t>Pilot_Street_Number</t>
   </si>
 </sst>
 </file>
@@ -168,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,6 +252,30 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -241,20 +292,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Accent1" xfId="2" builtinId="30"/>
@@ -571,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A972CAA-E476-435E-AE69-0E708EF8EE27}">
-  <dimension ref="B3:J23"/>
+  <dimension ref="B3:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -603,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -616,7 +665,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -634,7 +683,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -650,7 +699,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -668,7 +717,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -684,7 +733,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
@@ -700,7 +749,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -716,11 +765,11 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -732,9 +781,9 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -746,9 +795,9 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -760,15 +809,11 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>1</v>
@@ -778,80 +823,71 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
@@ -862,86 +898,244 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B26:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatriceSimplifie.xlsx
+++ b/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatriceSimplifie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Merise\ExercicesModeleConceptuel\GestionAeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC55B74-D617-42FB-B36F-31E4BC547953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D805FD9-0324-478C-90A0-0B68CADF49EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1567CA26-2DF1-42D2-A484-DF090DD32913}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Entité</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Pilot_Street_Number</t>
+  </si>
+  <si>
+    <t>Owner_Type_</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -279,13 +282,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,17 +305,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Accent1" xfId="2" builtinId="30"/>
@@ -620,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A972CAA-E476-435E-AE69-0E708EF8EE27}">
-  <dimension ref="B3:I33"/>
+  <dimension ref="B3:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +678,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -683,7 +696,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -699,7 +712,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -717,7 +730,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -733,7 +746,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
@@ -749,7 +762,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
@@ -765,10 +778,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3">
@@ -781,9 +794,9 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -795,9 +808,9 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -809,9 +822,9 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -823,9 +836,9 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -837,9 +850,9 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
-        <v>13</v>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -851,15 +864,11 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
         <v>1</v>
@@ -869,71 +878,73 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
-        <v>4</v>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -947,9 +958,9 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
-        <v>32</v>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -963,9 +974,9 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
-        <v>33</v>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -979,15 +990,11 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
@@ -999,9 +1006,11 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1017,37 +1026,41 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
-        <v>21</v>
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1059,9 +1072,9 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="8" t="s">
-        <v>25</v>
+      <c r="B29" s="9"/>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1073,9 +1086,9 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="8" t="s">
-        <v>34</v>
+      <c r="B30" s="9"/>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1087,9 +1100,9 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="8" t="s">
-        <v>35</v>
+      <c r="B31" s="9"/>
+      <c r="C31" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1101,9 +1114,9 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="8" t="s">
-        <v>36</v>
+      <c r="B32" s="9"/>
+      <c r="C32" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1115,9 +1128,9 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
-        <v>37</v>
+      <c r="B33" s="9"/>
+      <c r="C33" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1128,14 +1141,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B10:B16"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B17:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
